--- a/STACKRead/spreadsheets/books.xlsx
+++ b/STACKRead/spreadsheets/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\Codes\Python\STACKRead\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70A867-9BC4-4F06-95C2-7E4783E7E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E86DEA-6251-41AD-89D3-3CE46239ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="22935" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
   <si>
     <t>bookID</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
     <t>Publish_Date</t>
   </si>
   <si>
@@ -151,6 +175,9 @@
     <t>Gretchen Rubin</t>
   </si>
   <si>
+    <t>Presence: Bringing Your Bold</t>
+  </si>
+  <si>
     <t>Amy Cuddy</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t>Vishen Lakhiani</t>
   </si>
   <si>
+    <t xml:space="preserve">Quiet: The Power of Introverts </t>
+  </si>
+  <si>
     <t>Susan Cain</t>
   </si>
   <si>
@@ -326,42 +356,6 @@
   </si>
   <si>
     <t>Mang Juan</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiet: The Power of Introverts </t>
-  </si>
-  <si>
-    <t>Presence: Bringing Your Bold</t>
   </si>
 </sst>
 </file>
@@ -724,48 +718,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J56" sqref="A54:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -773,31 +763,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,31 +795,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,31 +827,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,31 +859,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -901,31 +891,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,31 +923,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -965,31 +955,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -997,31 +987,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,31 +1019,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,31 +1051,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1093,31 +1083,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,31 +1115,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,31 +1147,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1189,31 +1179,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1221,31 +1211,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1253,31 +1243,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,31 +1275,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,31 +1307,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1349,31 +1339,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,31 +1371,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1413,31 +1403,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1445,31 +1435,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,31 +1467,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,31 +1499,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1541,31 +1531,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,31 +1563,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1605,31 +1595,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1637,31 +1627,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1669,31 +1659,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1701,31 +1691,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1733,31 +1723,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1765,31 +1755,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,31 +1787,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1829,31 +1819,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,31 +1851,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1893,31 +1883,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1925,31 +1915,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,31 +1947,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,31 +1979,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2021,31 +2011,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2053,31 +2043,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2085,31 +2075,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2117,31 +2107,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2149,31 +2139,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2181,31 +2171,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2213,31 +2203,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,31 +2235,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2277,31 +2267,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2309,31 +2299,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,31 +2331,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2373,31 +2363,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,60 +2395,31 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/STACKRead/spreadsheets/books.xlsx
+++ b/STACKRead/spreadsheets/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\Codes\Python\STACKRead\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E86DEA-6251-41AD-89D3-3CE46239ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF5C94-333A-4C28-A240-5CCD83FAF239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="22935" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="187">
   <si>
     <t>bookID</t>
   </si>
@@ -356,6 +356,231 @@
   </si>
   <si>
     <t>Mang Juan</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Self-help, Philosophy</t>
+  </si>
+  <si>
+    <t>Spirituality, Self-help</t>
+  </si>
+  <si>
+    <t>Self-help, Psychology</t>
+  </si>
+  <si>
+    <t>Self-help</t>
+  </si>
+  <si>
+    <t>Self-help, Creativity</t>
+  </si>
+  <si>
+    <t>Psychology, Self-help</t>
+  </si>
+  <si>
+    <t>Self-help, Business</t>
+  </si>
+  <si>
+    <t>Memoir, Psychology</t>
+  </si>
+  <si>
+    <t>Self-help, Spirituality</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Business, Sociology</t>
+  </si>
+  <si>
+    <t>Business, Leadership</t>
+  </si>
+  <si>
+    <t>Memoir, Self-help</t>
+  </si>
+  <si>
+    <t>Fiction, Philosophy</t>
+  </si>
+  <si>
+    <t>Creativity, Self-help</t>
+  </si>
+  <si>
+    <t>Psychology, Business</t>
+  </si>
+  <si>
+    <t>Business, Self-help</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Psychology, Sociology</t>
+  </si>
+  <si>
+    <t>Fiction (Assumed)</t>
+  </si>
+  <si>
+    <t>Present moment awareness, spiritual enlightenment</t>
+  </si>
+  <si>
+    <t>Habit formation, personal development</t>
+  </si>
+  <si>
+    <t>Embracing life's challenges with a positive mindset</t>
+  </si>
+  <si>
+    <t>Cultivating creativity, overcoming fear</t>
+  </si>
+  <si>
+    <t>Growth mindset, success mindset</t>
+  </si>
+  <si>
+    <t>Vulnerability, courage, shame</t>
+  </si>
+  <si>
+    <t>Personal effectiveness, leadership</t>
+  </si>
+  <si>
+    <t>Perseverance, passion, achievement</t>
+  </si>
+  <si>
+    <t>Self-empowerment, confidence</t>
+  </si>
+  <si>
+    <t>Holocaust survivor's search for meaning in life</t>
+  </si>
+  <si>
+    <t>Personal freedom, spiritual principles</t>
+  </si>
+  <si>
+    <t>Habit formation, behavior change</t>
+  </si>
+  <si>
+    <t>Morning routines, personal development</t>
+  </si>
+  <si>
+    <t>Cognitive biases, decision-making</t>
+  </si>
+  <si>
+    <t>Emotional awareness, social skills</t>
+  </si>
+  <si>
+    <t>Wholehearted living, authenticity</t>
+  </si>
+  <si>
+    <t>Success factors, cultural influences</t>
+  </si>
+  <si>
+    <t>Purpose-driven leadership, innovation</t>
+  </si>
+  <si>
+    <t>Pursuit of happiness, personal exploration</t>
+  </si>
+  <si>
+    <t>Being present, overcoming challenges</t>
+  </si>
+  <si>
+    <t>Overcoming creative resistance, discipline</t>
+  </si>
+  <si>
+    <t>Resilience, vulnerability</t>
+  </si>
+  <si>
+    <t>Small actions leading to significant results</t>
+  </si>
+  <si>
+    <t>Personal transformation, mindset</t>
+  </si>
+  <si>
+    <t>Introversion, social dynamics</t>
+  </si>
+  <si>
+    <t>Taking action, overcoming hesitation</t>
+  </si>
+  <si>
+    <t>Self-help, motivation</t>
+  </si>
+  <si>
+    <t>Pursuit of happiness, Buddhist principles</t>
+  </si>
+  <si>
+    <t>Focus, priority-setting</t>
+  </si>
+  <si>
+    <t>Personal legend, destiny, spiritual journey</t>
+  </si>
+  <si>
+    <t>Saying "yes" to new opportunities, personal growth</t>
+  </si>
+  <si>
+    <t>Consciousness, spiritual awakening</t>
+  </si>
+  <si>
+    <t>Creativity, overcoming creative blocks</t>
+  </si>
+  <si>
+    <t>Motivation, autonomy, purpose</t>
+  </si>
+  <si>
+    <t>Positive thinking, goal setting</t>
+  </si>
+  <si>
+    <t>Intuition, decision-making</t>
+  </si>
+  <si>
+    <t>Minimalism, focus, essential priorities</t>
+  </si>
+  <si>
+    <t>Empowerment, authenticity</t>
+  </si>
+  <si>
+    <t>Pareto Principle, efficiency</t>
+  </si>
+  <si>
+    <t>Mindfulness, mental well-being</t>
+  </si>
+  <si>
+    <t>Optimal experience, peak performance</t>
+  </si>
+  <si>
+    <t>Spiritual evolution, soul's journey</t>
+  </si>
+  <si>
+    <t>Wealth creation, success</t>
+  </si>
+  <si>
+    <t>Change management, behavior change</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, startup methodology</t>
+  </si>
+  <si>
+    <t>Nonconformity, unconventional living</t>
+  </si>
+  <si>
+    <t>Decision-making, impact of choices</t>
+  </si>
+  <si>
+    <t>Lifestyle design, time management</t>
+  </si>
+  <si>
+    <t>Law of Attraction, positive thinking</t>
+  </si>
+  <si>
+    <t>(Assumed)</t>
   </si>
 </sst>
 </file>
@@ -721,10 +946,14 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J56" sqref="A54:J56"/>
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -769,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -781,13 +1010,13 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="J2">
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,10 +1030,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -813,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="J3">
+        <v>2001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,10 +1062,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -845,13 +1074,13 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
+      <c r="J4">
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -877,13 +1106,13 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
+      <c r="J5">
+        <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,10 +1126,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -909,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
-        <v>12</v>
+      <c r="J6">
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,10 +1158,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -941,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
+      <c r="J7">
+        <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,10 +1190,10 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -973,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
+      <c r="J8">
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,10 +1222,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1005,13 +1234,13 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
+      <c r="J9">
+        <v>1989</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,10 +1254,10 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1037,13 +1266,13 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>12</v>
+      <c r="J10">
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1069,13 +1298,13 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
-        <v>12</v>
+      <c r="J11">
+        <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,10 +1318,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1101,13 +1330,13 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>12</v>
+      <c r="J12">
+        <v>1959</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,10 +1350,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1133,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
-        <v>12</v>
+      <c r="J13">
+        <v>1997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,10 +1382,10 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1165,13 +1394,13 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" t="s">
-        <v>12</v>
+      <c r="J14">
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,10 +1414,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1197,13 +1426,13 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" t="s">
-        <v>12</v>
+      <c r="J15">
+        <v>2016</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1229,13 +1458,13 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="J16" t="s">
-        <v>12</v>
+      <c r="J16">
+        <v>2011</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,10 +1478,10 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1261,13 +1490,13 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
-      <c r="J17" t="s">
-        <v>12</v>
+      <c r="J17">
+        <v>1995</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,10 +1510,10 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1293,13 +1522,13 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" t="s">
-        <v>12</v>
+      <c r="J18">
+        <v>2010</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,10 +1542,10 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1325,13 +1554,13 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="J19" t="s">
-        <v>12</v>
+      <c r="J19">
+        <v>2008</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,10 +1574,10 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1357,13 +1586,13 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
-      <c r="J20" t="s">
-        <v>12</v>
+      <c r="J20">
+        <v>2009</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,10 +1606,10 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1389,13 +1618,13 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="J21" t="s">
-        <v>12</v>
+      <c r="J21">
+        <v>2009</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,10 +1638,10 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1421,13 +1650,13 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
-        <v>12</v>
+      <c r="J22">
+        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1453,13 +1682,13 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="J23" t="s">
-        <v>12</v>
+      <c r="J23">
+        <v>2002</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,10 +1702,10 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1485,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
       </c>
-      <c r="J24" t="s">
-        <v>12</v>
+      <c r="J24">
+        <v>2015</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1505,10 +1734,10 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1517,13 +1746,13 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
-      <c r="J25" t="s">
-        <v>12</v>
+      <c r="J25">
+        <v>2011</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,10 +1766,10 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1549,13 +1778,13 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
       </c>
-      <c r="J26" t="s">
-        <v>12</v>
+      <c r="J26">
+        <v>2016</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1569,10 +1798,10 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1581,13 +1810,13 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
       </c>
-      <c r="J27" t="s">
-        <v>12</v>
+      <c r="J27">
+        <v>2012</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,10 +1830,10 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1613,13 +1842,13 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
       </c>
-      <c r="J28" t="s">
-        <v>12</v>
+      <c r="J28">
+        <v>2017</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,10 +1862,10 @@
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1645,13 +1874,13 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
       </c>
-      <c r="J29" t="s">
-        <v>12</v>
+      <c r="J29">
+        <v>2016</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,10 +1894,10 @@
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1677,13 +1906,13 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
       </c>
-      <c r="J30" t="s">
-        <v>12</v>
+      <c r="J30">
+        <v>1998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1697,10 +1926,10 @@
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1709,13 +1938,13 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
       </c>
-      <c r="J31" t="s">
-        <v>12</v>
+      <c r="J31">
+        <v>2013</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,10 +1958,10 @@
         <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1741,13 +1970,13 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="J32" t="s">
-        <v>12</v>
+      <c r="J32">
+        <v>1988</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,10 +1990,10 @@
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1773,13 +2002,13 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="J33" t="s">
-        <v>12</v>
+      <c r="J33">
+        <v>2015</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1793,10 +2022,10 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1805,13 +2034,13 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
-        <v>12</v>
+      <c r="J34">
+        <v>2007</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1825,10 +2054,10 @@
         <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1837,13 +2066,13 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
       </c>
-      <c r="J35" t="s">
-        <v>12</v>
+      <c r="J35">
+        <v>1992</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,10 +2086,10 @@
         <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1869,13 +2098,13 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
       </c>
-      <c r="J36" t="s">
-        <v>12</v>
+      <c r="J36">
+        <v>2009</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1889,10 +2118,10 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1901,13 +2130,13 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
       </c>
-      <c r="J37" t="s">
-        <v>12</v>
+      <c r="J37">
+        <v>1959</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,10 +2150,10 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1933,13 +2162,13 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
       </c>
-      <c r="J38" t="s">
-        <v>12</v>
+      <c r="J38">
+        <v>2005</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,10 +2182,10 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -1965,13 +2194,13 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="J39" t="s">
-        <v>12</v>
+      <c r="J39">
+        <v>2014</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,10 +2214,10 @@
         <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -1997,13 +2226,13 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
       </c>
-      <c r="J40" t="s">
-        <v>12</v>
+      <c r="J40">
+        <v>2018</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,10 +2246,10 @@
         <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2029,13 +2258,13 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="J41" t="s">
-        <v>12</v>
+      <c r="J41">
+        <v>1992</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2049,10 +2278,10 @@
         <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2061,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="J42" t="s">
-        <v>12</v>
+      <c r="J42">
+        <v>2010</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2081,10 +2310,10 @@
         <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2093,13 +2322,13 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
       </c>
-      <c r="J43" t="s">
-        <v>12</v>
+      <c r="J43">
+        <v>1990</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2113,10 +2342,10 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2125,13 +2354,13 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="J44" t="s">
-        <v>12</v>
+      <c r="J44">
+        <v>1989</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2145,10 +2374,10 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -2157,13 +2386,13 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
       </c>
-      <c r="J45" t="s">
-        <v>12</v>
+      <c r="J45">
+        <v>1910</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,10 +2406,10 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -2189,13 +2418,13 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
       </c>
-      <c r="J46" t="s">
-        <v>12</v>
+      <c r="J46">
+        <v>2010</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2209,10 +2438,10 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -2221,13 +2450,13 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="J47" t="s">
-        <v>12</v>
+      <c r="J47">
+        <v>2011</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,10 +2470,10 @@
         <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -2253,13 +2482,13 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
       </c>
-      <c r="J48" t="s">
-        <v>12</v>
+      <c r="J48">
+        <v>2010</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,10 +2502,10 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2285,13 +2514,13 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
       </c>
-      <c r="J49" t="s">
-        <v>12</v>
+      <c r="J49">
+        <v>2004</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2305,10 +2534,10 @@
         <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -2317,13 +2546,13 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
       </c>
-      <c r="J50" t="s">
-        <v>12</v>
+      <c r="J50">
+        <v>2007</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2337,10 +2566,10 @@
         <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -2349,13 +2578,13 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="J51" t="s">
-        <v>12</v>
+      <c r="J51">
+        <v>2006</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2369,10 +2598,10 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2381,13 +2610,13 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2419,10 +2648,11 @@
         <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>